--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>003298</t>
-  </si>
-  <si>
-    <t>003299</t>
-  </si>
-  <si>
-    <t>嘉实物流产业股票A</t>
-  </si>
-  <si>
-    <t>嘉实物流产业股票C</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>88.85</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>0.0838</t>
-  </si>
-  <si>
-    <t>0.0382</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,1135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1577,4 +1578,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1586,7 +1587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,17 +1598,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1617,14 +1638,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1633,13 +1676,2203 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3803,7 +3804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,17 +3815,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3834,14 +3855,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.43</v>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3850,14 +3893,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.59</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3866,13 +3931,5415 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001635</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001636</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9254,7 +9255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9265,17 +9266,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9285,14 +9306,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.11</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9301,14 +9344,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.43</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9317,14 +9382,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.59</v>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1376</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9333,13 +9420,4935 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5418</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4405</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010167</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010172</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>23.33</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>18.11</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
-        <v>11.43</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -566,6 +583,6136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2991</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012704</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报一年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银双息回报混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012705</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报一年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>75.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5557,7 +11704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11007,7 +17154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13223,7 +19370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14225,7 +20372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
+++ b/数据整理/stocks/A股/上证主板/600233-圆通速递.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>37.13</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>23.33</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>18.11</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D5" t="n">
-        <v>11.43</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -583,6 +600,4164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1419</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5517</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5417</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010081</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012704</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银双息回报混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012705</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银兴利稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015287</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015288</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010082</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰康浩泽混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6712,7 +10887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11704,7 +15879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17154,7 +21329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19370,7 +23545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20372,7 +24547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
